--- a/ig/main/StructureDefinition-ror-location.xlsx
+++ b/ig/main/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T15:55:07+00:00</t>
+    <t>2023-02-21T16:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-location.xlsx
+++ b/ig/main/StructureDefinition-ror-location.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-location</t>
+    <t>http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-location</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T16:28:41+00:00</t>
+    <t>2023-02-22T09:44:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -440,7 +440,7 @@
     <t>ror-healthcareservice-capacity-reception</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-healthcareservice-capacity-reception}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-capacity-reception}
 </t>
   </si>
   <si>
@@ -453,7 +453,7 @@
     <t>ror-healthcareservice-capacity-reception-crisis</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-healthcareservice-capacity-reception-crisis}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-capacity-reception-crisis}
 </t>
   </si>
   <si>
@@ -463,7 +463,7 @@
     <t>ror-healthcareservice-residential-capacity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-healthcareservice-residential-capacity}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-residential-capacity}
 </t>
   </si>
   <si>
@@ -473,7 +473,7 @@
     <t>ror-code-region</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-code-region}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-code-region}
 </t>
   </si>
   <si>
@@ -781,7 +781,7 @@
     <t>ror-commune-cog</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-commune-cog}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-commune-cog}
 </t>
   </si>
   <si>
@@ -791,7 +791,7 @@
     <t>ror-address-calculated-distance</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-address-calculated-distance}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-address-calculated-distance}
 </t>
   </si>
   <si>
@@ -801,7 +801,7 @@
     <t>ror-geolocation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-geolocation}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-geolocation}
 </t>
   </si>
   <si>
@@ -1037,7 +1037,7 @@
     <t>ror-organization-address-line-iso-21090-adxp-locality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-organization-address-line-iso-21090-adxp-locality}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-organization-address-line-iso-21090-adxp-locality}
 </t>
   </si>
   <si>
@@ -1244,7 +1244,7 @@
     <t>ror-location-geodesic-system</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-location-geodesic-system}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-location-geodesic-system}
 </t>
   </si>
   <si>
@@ -1254,7 +1254,7 @@
     <t>ror-location-reliable-position</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-location-reliable-position}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-location-reliable-position}
 </t>
   </si>
   <si>

--- a/ig/main/StructureDefinition-ror-location.xlsx
+++ b/ig/main/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T09:44:01+00:00</t>
+    <t>2023-02-24T13:00:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-location.xlsx
+++ b/ig/main/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T13:00:27+00:00</t>
+    <t>2023-02-24T16:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-location.xlsx
+++ b/ig/main/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T16:20:30+00:00</t>
+    <t>2023-02-24T16:22:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-location.xlsx
+++ b/ig/main/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T16:22:39+00:00</t>
+    <t>2023-02-24T16:23:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-location.xlsx
+++ b/ig/main/StructureDefinition-ror-location.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-location</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-location</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T16:23:59+00:00</t>
+    <t>2023-02-27T11:21:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -440,7 +440,7 @@
     <t>ror-healthcareservice-capacity-reception</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-capacity-reception}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-capacity-reception}
 </t>
   </si>
   <si>
@@ -453,7 +453,7 @@
     <t>ror-healthcareservice-capacity-reception-crisis</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-capacity-reception-crisis}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-capacity-reception-crisis}
 </t>
   </si>
   <si>
@@ -463,7 +463,7 @@
     <t>ror-healthcareservice-residential-capacity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-residential-capacity}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-residential-capacity}
 </t>
   </si>
   <si>
@@ -473,7 +473,7 @@
     <t>ror-code-region</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-code-region}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-code-region}
 </t>
   </si>
   <si>
@@ -781,7 +781,7 @@
     <t>ror-commune-cog</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-commune-cog}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-commune-cog}
 </t>
   </si>
   <si>
@@ -791,7 +791,7 @@
     <t>ror-address-calculated-distance</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-address-calculated-distance}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-address-calculated-distance}
 </t>
   </si>
   <si>
@@ -801,7 +801,7 @@
     <t>ror-geolocation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-geolocation}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-geolocation}
 </t>
   </si>
   <si>
@@ -1037,7 +1037,7 @@
     <t>ror-organization-address-line-iso-21090-adxp-locality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-organization-address-line-iso-21090-adxp-locality}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-organization-address-line-iso-21090-adxp-locality}
 </t>
   </si>
   <si>
@@ -1244,7 +1244,7 @@
     <t>ror-location-geodesic-system</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-location-geodesic-system}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-location-geodesic-system}
 </t>
   </si>
   <si>
@@ -1254,7 +1254,7 @@
     <t>ror-location-reliable-position</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-location-reliable-position}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-location-reliable-position}
 </t>
   </si>
   <si>
@@ -1774,7 +1774,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="118.05078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="119.0078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/ig/main/StructureDefinition-ror-location.xlsx
+++ b/ig/main/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:21:32+00:00</t>
+    <t>2023-02-28T09:39:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-location.xlsx
+++ b/ig/main/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T09:39:29+00:00</t>
+    <t>2023-02-28T09:39:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-location.xlsx
+++ b/ig/main/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T09:39:18+00:00</t>
+    <t>2023-03-19T15:21:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-location.xlsx
+++ b/ig/main/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:21:05+00:00</t>
+    <t>2023-03-19T15:22:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-location.xlsx
+++ b/ig/main/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:22:13+00:00</t>
+    <t>2023-03-19T15:23:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-location.xlsx
+++ b/ig/main/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:23:16+00:00</t>
+    <t>2023-03-19T15:24:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-location.xlsx
+++ b/ig/main/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:24:07+00:00</t>
+    <t>2023-03-19T15:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
